--- a/data/trans_dic/P18_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,61%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>22,23%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,89; 29,77</t>
+          <t>8,65; 36,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,09</t>
+          <t>1,22; 8,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 11,31</t>
+          <t>5,06; 13,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,84</t>
+          <t>1,87; 6,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,0; 94,79</t>
+          <t>1,27; 8,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 30,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 15,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 16,06</t>
+          <t>17,33; 35,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,24</t>
+          <t>5,85; 16,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>84,5; 92,34</t>
+          <t>8,45; 16,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,95; 27,62</t>
+          <t>7,43; 14,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,33</t>
+          <t>4,65; 14,26</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>86,94; 92,36</t>
+          <t>16,3; 32,77</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 10,93</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 13,27</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 9,52</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 10,45</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,97</t>
+          <t>4,78; 11,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,43</t>
+          <t>1,48; 5,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,15</t>
+          <t>2,16; 5,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,82</t>
+          <t>2,63; 6,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,9</t>
+          <t>3,3; 9,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 13,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,43</t>
+          <t>5,32; 11,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,75</t>
+          <t>3,48; 11,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>91,85; 96,2</t>
+          <t>4,75; 8,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 11,95</t>
+          <t>2,19; 7,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,09</t>
+          <t>1,34; 4,2</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>93,11; 96,11</t>
+          <t>5,89; 10,37</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 7,39</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 6,67</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 5,63</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 6,29</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,0</t>
+          <t>3,31; 10,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 10,64</t>
+          <t>0,88; 6,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,44</t>
+          <t>1,92; 6,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,41</t>
+          <t>1,4; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,53; 99,63</t>
+          <t>0,32; 3,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,39</t>
+          <t>3,53; 9,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,34</t>
+          <t>0,68; 4,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,23; 98,71</t>
+          <t>3,63; 8,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,97</t>
+          <t>2,37; 5,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,56</t>
+          <t>1,4; 4,88</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>96,24; 98,89</t>
+          <t>4,19; 8,61</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 4,1</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 6,3</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 4,3</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 3,53</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>13,67%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,99</t>
+          <t>9,79; 14,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,53</t>
+          <t>2,12; 8,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,55</t>
+          <t>3,75; 9,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,13; 96,06</t>
+          <t>2,16; 6,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 15,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 9,15</t>
+          <t>13,2; 17,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,28</t>
+          <t>3,76; 8,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,0; 94,45</t>
+          <t>5,7; 11,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 13,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,65</t>
+          <t>1,37; 6,17</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>92,74; 95,02</t>
+          <t>11,88; 15,56</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 7,61</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 9,35</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 5,56</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 12,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 5,59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 6,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 4,9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 5,26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 14,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 7,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 9,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 7,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 5,16</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 13,38</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 5,56</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 7,31</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 5,56</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 4,73</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido feliz en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,61%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39237</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12395</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42892</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25367</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17695</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64932</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40510</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>75765</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>89659</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55333</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>104169</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>52905</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>118658</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>115026</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>73028</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18665; 78704</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4048; 27543</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26397; 69365</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13357; 45148</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5680; 38518</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43847; 88967</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24219; 68297</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53236; 102946</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65449; 124999</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29411; 90169</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>76369; 153591</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>32891; 81542</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>89307; 152849</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>85070; 151891</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>42293; 112783</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50986</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27443</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41507</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67236</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>61151</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55889</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60131</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>82099</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54346</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27848</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>106875</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>87573</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>123606</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>121581</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>88999</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31029; 77645</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13746; 49300</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25929; 66912</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42292; 102266</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35279; 97134</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37719; 80501</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34604; 109348</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>58285; 108809</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32711; 116812</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14461; 45416</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>80018; 140804</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>59207; 141925</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>91805; 161978</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>86801; 174882</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>61276; 135414</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28087</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16531</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28487</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28208</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10958</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31532</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14874</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>51792</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>42461</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23573</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>59620</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>31405</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>80279</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>70669</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>34531</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15100; 47340</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6312; 47212</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15898; 51109</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15293; 48228</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2643; 25834</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18665; 48624</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5191; 31941</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34132; 76115</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27501; 60641</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12533; 43785</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>41315; 84753</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16353; 60728</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>57403; 111333</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>49449; 96812</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>19898; 60841</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>250509</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>60050</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50325</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>43062</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>317235</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>79848</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61644</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28106</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>567744</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>139899</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>111970</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>71168</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>204924; 313624</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30400; 123064</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31907; 84460</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23444; 74738</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>271715; 365962</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52482; 112620</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42746; 87843</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13309; 59812</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>493245; 646336</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>102367; 215368</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>82298; 149782</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>45091; 114291</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>368819</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>116419</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>163211</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>120810</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>132866</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>469588</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>195363</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>271301</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>186466</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>134859</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>838407</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>311782</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>434512</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>307276</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>267726</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>310799; 443455</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77779; 190491</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>125026; 216224</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>88839; 167255</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>91381; 180294</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>409296; 527800</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>153736; 259543</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>226036; 322551</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>147080; 248049</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>98420; 184656</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>748117; 932090</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>252858; 387669</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>374923; 507689</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>257939; 386449</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>209509; 331875</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
